--- a/chapters/literature_analysis/data/mapping.xlsx
+++ b/chapters/literature_analysis/data/mapping.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Type (Method, theory, report)</t>
+    <t xml:space="preserve">Type</t>
   </si>
   <si>
     <t xml:space="preserve">Gamut extended</t>
@@ -697,11 +697,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -720,115 +721,20 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -836,23 +742,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -876,23 +767,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -903,7 +777,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -912,91 +786,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1011,37 +808,37 @@
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="85.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="42.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="141.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="42.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="141.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="54.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="31.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="52.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="52.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="37.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.71"/>
@@ -1051,20 +848,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="194.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="179.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="179.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="277.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="150.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="156.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="150.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="156.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="76.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="10.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="10.32"/>
@@ -1072,8 +869,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="9.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="12.41"/>
@@ -1086,7 +883,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="68.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="68.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="8.38"/>
@@ -1096,12 +893,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="0" width="5.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="14.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="88" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2732,7 +2529,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -3063,7 +2860,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/chapters/literature_analysis/data/mapping.xlsx
+++ b/chapters/literature_analysis/data/mapping.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="223">
   <si>
     <t xml:space="preserve">Key</t>
   </si>
@@ -59,6 +59,9 @@
     <t xml:space="preserve">Linear Models</t>
   </si>
   <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
     <t xml:space="preserve">PBWFJ6U2</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t xml:space="preserve">Contrastive Explanations with Local Foil Trees</t>
   </si>
   <si>
+    <t xml:space="preserve">Unsupervised Classification</t>
+  </si>
+  <si>
     <t xml:space="preserve">4QMFRSF8</t>
   </si>
   <si>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">Representation Interpretation with Spatial Encoding and Multimodal Analytics</t>
   </si>
   <si>
-    <t xml:space="preserve">Embedding</t>
+    <t xml:space="preserve">Supervised Embedding</t>
   </si>
   <si>
     <t xml:space="preserve">MYXNFPL5</t>
@@ -164,7 +170,7 @@
     <t xml:space="preserve">Explaining Black Box Models by Means of Local Rules</t>
   </si>
   <si>
-    <t xml:space="preserve">(Clustering)</t>
+    <t xml:space="preserve">Supervised Classification</t>
   </si>
   <si>
     <t xml:space="preserve">BBB5SP3S</t>
@@ -173,9 +179,6 @@
     <t xml:space="preserve">Meaningful Clusterings of Recurrent Neural Network Activations for NLP</t>
   </si>
   <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
     <t xml:space="preserve">GDTDERZC</t>
   </si>
   <si>
@@ -233,7 +236,7 @@
     <t xml:space="preserve">Deep Learning for Case-Based Reasoning through Prototypes: A Neural Network that Explains Its Predictions</t>
   </si>
   <si>
-    <t xml:space="preserve">Dimreduction</t>
+    <t xml:space="preserve">Supervised Dimreduction</t>
   </si>
   <si>
     <t xml:space="preserve">75QHVXJJ</t>
@@ -254,9 +257,6 @@
     <t xml:space="preserve">Explainable Text Classification in Legal Document Review A Case Study of Explainable Predictive Coding</t>
   </si>
   <si>
-    <t xml:space="preserve">(Embedding)</t>
-  </si>
-  <si>
     <t xml:space="preserve">SXEKPW6T</t>
   </si>
   <si>
@@ -410,6 +410,9 @@
     <t xml:space="preserve">The Structure of Deep Neural Network for Interpretable Transfer Learning</t>
   </si>
   <si>
+    <t xml:space="preserve">Unsupervised Embedding</t>
+  </si>
+  <si>
     <t xml:space="preserve">UR3STN4I</t>
   </si>
   <si>
@@ -428,142 +431,145 @@
     <t xml:space="preserve">Towards Visual Explanations for Convolutional Neural Networks via Input Resampling</t>
   </si>
   <si>
+    <t xml:space="preserve">CFS2Y7XP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unsupervised Learning of Neural Networks to Explain Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATRLZJ3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual Explanation by Interpretation: Improving Visual Feedback Capabilities of Deep Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">642HR5SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"What is Relevant in a Text Document?": An Interpretable Machine Learning Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKWASNL4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Why did you do that?": Explaining black box models with Inductive Synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V49Y2BJ8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YASENN: Explaining Neural Networks via Partitioning Activation Sequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8FWDEMK8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparison-based Inverse Classification for Interpretability in Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9ZSYEFVG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LICON: A Linear Weighting Scheme for the Contribution ofInput Variables in Deep Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6SKBP3RW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Text-Visualizing Neural Network Model: Understanding Online Financial Textual Data</t>
+  </si>
+  <si>
     <t xml:space="preserve">5VISTAL2</t>
   </si>
   <si>
     <t xml:space="preserve">Training Machine Learning Models by Regularizing their Explanations</t>
   </si>
   <si>
+    <t xml:space="preserve">Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFFR4B4Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical Challenges for the Visual Representation of Deep Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRDMAZXH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Survey of Methods for Explaining Black Box Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PXN6QICK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyzing and Interpreting Neural Networks for NLP: A Report on the First BlackboxNLP Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8HBDC4TT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Safe and Interpretable Machine Learning: A Methodological Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q6DJQKDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visual Interpretability for Deep Learning: A Survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V5BAHCHU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explainable Artificial Intelligence: Understanding, Visualizing and Interpreting Deep Learning Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TZEX5DM7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explaining Explanations: An Overview of Interpretability of Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UW4YRBQP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methods for Interpreting and Understanding Deep Neural Networks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZHU9ME5K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peeking Inside the Black-Box: A Survey on Explainable Artificial Intelligence (XAI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9RTEGZJR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Challenge of Crafting Intelligible Intelligence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RGLHEU6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Neural Networks via Feature Visualization: A survey</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUZKRNTM</t>
   </si>
   <si>
     <t xml:space="preserve">Understanding Hidden Memories of Recurrent Neural Networks</t>
   </si>
   <si>
-    <t xml:space="preserve">CFS2Y7XP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unsupervised Learning of Neural Networks to Explain Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATRLZJ3D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Explanation by Interpretation: Improving Visual Feedback Capabilities of Deep Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">642HR5SK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"What is Relevant in a Text Document?": An Interpretable Machine Learning Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AKWASNL4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Why did you do that?": Explaining black box models with Inductive Synthesis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V49Y2BJ8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YASENN: Explaining Neural Networks via Partitioning Activation Sequences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8FWDEMK8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparison-based Inverse Classification for Interpretability in Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9ZSYEFVG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LICON: A Linear Weighting Scheme for the Contribution ofInput Variables in Deep Artificial Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6SKBP3RW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Text-Visualizing Neural Network Model: Understanding Online Financial Textual Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DFFR4B4Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical Challenges for the Visual Representation of Deep Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRDMAZXH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Survey of Methods for Explaining Black Box Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PXN6QICK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyzing and Interpreting Neural Networks for NLP: A Report on the First BlackboxNLP Workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8HBDC4TT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Safe and Interpretable Machine Learning: A Methodological Review</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q6DJQKDN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visual Interpretability for Deep Learning: A Survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V5BAHCHU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explainable Artificial Intelligence: Understanding, Visualizing and Interpreting Deep Learning Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TZEX5DM7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explaining Explanations: An Overview of Interpretability of Machine Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UW4YRBQP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methods for Interpreting and Understanding Deep Neural Networks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZHU9ME5K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peeking Inside the Black-Box: A Survey on Explainable Artificial Intelligence (XAI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9RTEGZJR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Challenge of Crafting Intelligible Intelligence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RGLHEU6P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding Neural Networks via Feature Visualization: A survey</t>
+    <t xml:space="preserve">Study</t>
   </si>
   <si>
     <t xml:space="preserve">PM9PWQ6W</t>
   </si>
   <si>
     <t xml:space="preserve">Summit: Scaling Deep Learning Interpretability by Visualizing Activation and Attribution Summarizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study</t>
   </si>
   <si>
     <t xml:space="preserve">YIZTFDPA</t>
@@ -697,12 +703,11 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -720,21 +725,139 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -742,8 +865,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -767,6 +905,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -777,7 +966,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -786,14 +975,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -803,32 +1069,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="85.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="42.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="141.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="141.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.83"/>
@@ -838,7 +1104,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="52.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="52.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="37.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="9.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="6.71"/>
@@ -848,7 +1114,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="194.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="179.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="179.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="277.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="15.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="150.95"/>
@@ -883,7 +1149,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="70" style="0" width="7.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="71" style="0" width="13.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="68.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="72" min="72" style="0" width="68.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="73" min="73" style="0" width="5.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="74" min="74" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="75" min="75" style="0" width="8.38"/>
@@ -898,7 +1164,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="84" style="0" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="85" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="86" min="86" style="0" width="7.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="87" min="87" style="0" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="88" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -922,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -938,72 +1204,84 @@
       <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>8</v>
@@ -1012,17 +1290,20 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>8</v>
@@ -1031,351 +1312,372 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>8</v>
@@ -1384,81 +1686,81 @@
         <v>9</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>77</v>
       </c>
@@ -1469,18 +1771,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>79</v>
       </c>
@@ -1491,18 +1793,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>81</v>
       </c>
@@ -1513,20 +1815,20 @@
         <v>8</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>83</v>
       </c>
@@ -1537,18 +1839,18 @@
         <v>8</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>85</v>
       </c>
@@ -1562,17 +1864,17 @@
         <v>9</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>87</v>
       </c>
@@ -1583,20 +1885,20 @@
         <v>8</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>89</v>
       </c>
@@ -1607,19 +1909,19 @@
         <v>8</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>91</v>
       </c>
@@ -1630,20 +1932,20 @@
         <v>8</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>93</v>
       </c>
@@ -1657,10 +1959,10 @@
         <v>9</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>95</v>
@@ -1670,7 +1972,7 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>96</v>
       </c>
@@ -1681,18 +1983,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>98</v>
       </c>
@@ -1706,17 +2008,17 @@
         <v>9</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>100</v>
       </c>
@@ -1727,20 +2029,20 @@
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>102</v>
       </c>
@@ -1751,20 +2053,20 @@
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>104</v>
       </c>
@@ -1775,20 +2077,20 @@
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>106</v>
       </c>
@@ -1799,20 +2101,20 @@
         <v>8</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>108</v>
       </c>
@@ -1823,20 +2125,20 @@
         <v>8</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>110</v>
       </c>
@@ -1847,18 +2149,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>112</v>
       </c>
@@ -1869,20 +2171,20 @@
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>114</v>
       </c>
@@ -1896,10 +2198,10 @@
         <v>9</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -1920,17 +2222,17 @@
         <v>9</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>118</v>
       </c>
@@ -1944,16 +2246,16 @@
         <v>120</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>121</v>
       </c>
@@ -1967,17 +2269,17 @@
         <v>123</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>124</v>
       </c>
@@ -1988,20 +2290,20 @@
         <v>8</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>126</v>
       </c>
@@ -2010,501 +2312,699 @@
       </c>
       <c r="C51" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>128</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>48</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C62" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>154</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>156</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D66" s="2"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>154</v>
+      </c>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>156</v>
+        <v>179</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C76" s="0" t="s">
         <v>179</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>179</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>179</v>
       </c>
+      <c r="D78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C79" s="0" t="s">
         <v>179</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C80" s="0" t="s">
         <v>179</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="F81" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B82" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="D82" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
+      </c>
+      <c r="F82" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F84"/>
+  <autoFilter ref="A1:F84">
+    <filterColumn colId="5">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Dimreduction"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2537,10 +3037,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>3</v>
@@ -2551,7 +3051,7 @@
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
@@ -2565,296 +3065,296 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>159</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/chapters/literature_analysis/data/mapping.xlsx
+++ b/chapters/literature_analysis/data/mapping.xlsx
@@ -1075,7 +1075,7 @@
   <dimension ref="A1:O84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B86" activeCellId="0" sqref="B86"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1320,7 +1320,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>28</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>40</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>57</v>
       </c>
@@ -2184,7 +2184,7 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>114</v>
       </c>
@@ -2208,7 +2208,7 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>116</v>
       </c>
@@ -2232,7 +2232,7 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>118</v>
       </c>
@@ -2518,7 +2518,7 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>146</v>
       </c>
@@ -2904,7 +2904,7 @@
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>190</v>
       </c>
@@ -3001,7 +3001,7 @@
   <autoFilter ref="A1:F84">
     <filterColumn colId="5">
       <customFilters and="true">
-        <customFilter operator="equal" val="Dimreduction"/>
+        <customFilter operator="equal" val="Unsupervised Classification"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
